--- a/medicine/Psychotrope/Elvira_Petrozzi/Elvira_Petrozzi.xlsx
+++ b/medicine/Psychotrope/Elvira_Petrozzi/Elvira_Petrozzi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elvira Petrozzi, née Rita Agnese Petrozzi le 21 janvier 1937 à Sora (Latium, Italie) et morte le 3 août 2023 à Saluces (Piémont, Italie)[1], est une religieuse catholique italienne, membre des Sœurs de la charité de Sainte-Jeanne-Antide-Thouret. Universellement connue comme « la sœur des drogués », elle est la fondatrice de la communauté du Cénacle (ca), spécialisée dans l'aide aux toxicomanes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elvira Petrozzi, née Rita Agnese Petrozzi le 21 janvier 1937 à Sora (Latium, Italie) et morte le 3 août 2023 à Saluces (Piémont, Italie), est une religieuse catholique italienne, membre des Sœurs de la charité de Sainte-Jeanne-Antide-Thouret. Universellement connue comme « la sœur des drogués », elle est la fondatrice de la communauté du Cénacle (ca), spécialisée dans l'aide aux toxicomanes.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Membre d'une famille particulièrement pauvre, dont le père est notamment alcoolique, Elvira Petrozzi émigre à Alexandrie durant la Seconde Guerre mondiale[2]. Elle affirme n'avoir « jamais pensé à apprendre à lire ni à étudier »[3].
-En 1956, alors qu'elle est âgée de 19 ans, elle décide de devenir religieuse dans la congrégation des Sœurs de la charité de Sainte-Jeanne-Antide-Thouret. Parallèlement à sa vie religieuse, elle travaille comme maîtresse dans une crèche[2].
-Le 16 juillet 1983, elle fonde la première communauté du Cénacle dans une ancienne maison du XVIIIe siècle, perchée sur une colline au-dessus de Saluces, dans le Piémont. Elle souhaite d'abord créer une communauté pour les jeunes marginaux, mais les premiers à lui demander de l'aide sont de jeunes toxicomanes. C'est ainsi qu'elle se consacre à ces derniers[2]. Le 16 juillet 2009, la communauté est reconnue par le Conseil pontifical pour les laïcs comme une association privée internationale de fidèles[3].
-En 2013, il existe soixante « cénacles » dans le monde. La communauté est notamment présente en Croatie, en Bosnie-Herzégovine, en Slovénie, en Autriche, en Pologne, en Russie, en Irlande, en France, aux États-Unis, au Mexique, en République dominicaine et au Brésil[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Membre d'une famille particulièrement pauvre, dont le père est notamment alcoolique, Elvira Petrozzi émigre à Alexandrie durant la Seconde Guerre mondiale. Elle affirme n'avoir « jamais pensé à apprendre à lire ni à étudier ».
+En 1956, alors qu'elle est âgée de 19 ans, elle décide de devenir religieuse dans la congrégation des Sœurs de la charité de Sainte-Jeanne-Antide-Thouret. Parallèlement à sa vie religieuse, elle travaille comme maîtresse dans une crèche.
+Le 16 juillet 1983, elle fonde la première communauté du Cénacle dans une ancienne maison du XVIIIe siècle, perchée sur une colline au-dessus de Saluces, dans le Piémont. Elle souhaite d'abord créer une communauté pour les jeunes marginaux, mais les premiers à lui demander de l'aide sont de jeunes toxicomanes. C'est ainsi qu'elle se consacre à ces derniers. Le 16 juillet 2009, la communauté est reconnue par le Conseil pontifical pour les laïcs comme une association privée internationale de fidèles.
+En 2013, il existe soixante « cénacles » dans le monde. La communauté est notamment présente en Croatie, en Bosnie-Herzégovine, en Slovénie, en Autriche, en Pologne, en Russie, en Irlande, en France, aux États-Unis, au Mexique, en République dominicaine et au Brésil.
 </t>
         </is>
       </c>
